--- a/ATS_JULIO_2023.xlsx
+++ b/ATS_JULIO_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LAICA 2023\DECLARACIONES\JULIO 104 Y 103\ATS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDBCDDF-98CE-4271-BB5D-AA98694BDC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{105BD9C6-8C0E-4F39-856E-AD5D086DABAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{98D60F4C-19F4-4B15-B8CB-8A3C4D9AFCF5}"/>
   </bookViews>
@@ -1955,7 +1955,7 @@
   <dimension ref="A1:AT217"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D121" workbookViewId="0">
-      <selection activeCell="K128" sqref="K128"/>
+      <selection activeCell="J129" sqref="J129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19543,10 +19543,10 @@
         <v>2</v>
       </c>
       <c r="J128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K128" s="4">
-        <v>1207495530</v>
+        <v>1207495530001</v>
       </c>
       <c r="L128">
         <v>3</v>
